--- a/Q_Cool.xlsx
+++ b/Q_Cool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/lcalimlim3_gatech_edu/Documents/Documents/ASE 6002 Portable Kettle/Components/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gtvault-my.sharepoint.com/personal/rgarcia46_gatech_edu/Documents/Documents/ASE6002/TA2/ASE6002PEK-main/ASE6002PEK-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9444471-0C62-4151-A30C-047A0A75915B}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{063A5964-0365-43B4-B470-8DEE6E7CD90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C828F20C-E619-4CBE-93C8-9FEAB1EB022D}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="2685" windowWidth="21570" windowHeight="11295" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{88502E7A-6C66-4183-A361-D0DC5516A7E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="dt_cool">Sheet1!$B$7</definedName>
     <definedName name="fluid_mass">Sheet1!$B$11</definedName>
     <definedName name="k_lid">Sheet1!$B$3</definedName>
-    <definedName name="Q_cool">Sheet1!$B$8</definedName>
+    <definedName name="Q_cool">Sheet1!$B$12</definedName>
     <definedName name="set_temp">Sheet1!$B$6</definedName>
     <definedName name="thickness_lid">Sheet1!$B$4</definedName>
   </definedNames>
@@ -153,10 +153,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,7 +475,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <f>B3*B5*(B6-B7)/B4</f>
+        <f>k_lid*area_lid*(set_temp-dt_cool)/thickness_lid</f>
         <v>16.875</v>
       </c>
       <c r="C8" t="s">
@@ -586,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f>B11*B10*B7</f>
+        <f>fluid_mass*c_water*dt_cool</f>
         <v>15</v>
       </c>
       <c r="C12" t="s">
